--- a/1_Mechanic/Alexbotmini_V1.0/wholebody/BOM.xlsx
+++ b/1_Mechanic/Alexbotmini_V1.0/wholebody/BOM.xlsx
@@ -1534,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="5"/>
